--- a/new.xlsx
+++ b/new.xlsx
@@ -376,10 +376,44 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="textNew"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>4</v>
+      </c>
+      <c r="C1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>